--- a/Assets/Game/Content/Data/TutorialTable.xlsx
+++ b/Assets/Game/Content/Data/TutorialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\Alchemy\Assets\Game\Content\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProj\NineLivesAtlier\Assets\Game\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E565105-2A89-4918-A21D-FD617A6F2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCA0CC-033E-4F6C-9848-F28ED0022A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1732,6 +1730,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1741,11 +1741,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2020,21 +2018,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="30.109375" customWidth="1"/>
-    <col min="9" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.296875" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" customWidth="1"/>
+    <col min="6" max="7" width="12.796875" customWidth="1"/>
+    <col min="8" max="8" width="30.09765625" customWidth="1"/>
+    <col min="9" max="10" width="9.796875" customWidth="1"/>
+    <col min="11" max="11" width="35.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="409.5" customHeight="1">
@@ -2046,15 +2044,15 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="4"/>
       <c r="K1" s="5" t="s">
         <v>3</v>
@@ -2375,9 +2373,26 @@
         <v>73</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="6" t="s">
-        <v>455</v>
+      <c r="A18" t="s">
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -2385,16 +2400,16 @@
       <c r="H18" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>459</v>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="6" t="s">
-        <v>456</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -2402,110 +2417,119 @@
       <c r="H19" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>459</v>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>448</v>
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1">
-      <c r="A21" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>453</v>
+        <v>72</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2517,15 +2541,15 @@
         <v>72</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2537,15 +2561,15 @@
         <v>72</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2557,15 +2581,15 @@
         <v>72</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2577,15 +2601,15 @@
         <v>72</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2597,15 +2621,15 @@
         <v>72</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2617,305 +2641,305 @@
         <v>72</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>112</v>
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
+        <v>135</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
+      </c>
+      <c r="H38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="H39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
       <c r="H40" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" t="s">
-        <v>132</v>
+        <v>146</v>
+      </c>
+      <c r="I40" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
-      <c r="H41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" t="s">
-        <v>135</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>136</v>
+      <c r="G41">
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42">
-        <v>0.4</v>
+        <v>150</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>139</v>
       </c>
-      <c r="H43" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" t="s">
-        <v>141</v>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>156</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>160</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46">
-        <v>0.4</v>
+        <v>163</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2927,425 +2951,400 @@
         <v>72</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
         <v>72</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
         <v>72</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" t="s">
-        <v>172</v>
-      </c>
-      <c r="I54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K54" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s">
-        <v>174</v>
-      </c>
-      <c r="I55" t="s">
-        <v>175</v>
-      </c>
-      <c r="K55" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
         <v>34</v>
       </c>
-      <c r="G56">
-        <v>0.6</v>
-      </c>
-      <c r="K56" s="1"/>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>193</v>
+      </c>
+      <c r="K56" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" t="s">
-        <v>72</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>180</v>
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
         <v>72</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" t="s">
+        <v>60</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E60" t="s">
-        <v>190</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H60" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" t="s">
+        <v>203</v>
+      </c>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
       <c r="H61" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61" t="s">
-        <v>194</v>
+        <v>200</v>
+      </c>
+      <c r="I61" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
         <v>34</v>
       </c>
-      <c r="G62">
-        <v>0.2</v>
-      </c>
+      <c r="H62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" t="s">
+        <v>206</v>
+      </c>
+      <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" t="s">
-        <v>72</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>201</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I65" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="H66" t="s">
-        <v>200</v>
-      </c>
-      <c r="I66" t="s">
-        <v>60</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>201</v>
+      <c r="G66">
+        <v>0.3</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s">
-        <v>140</v>
-      </c>
-      <c r="I67" t="s">
-        <v>206</v>
-      </c>
-      <c r="K67" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="I68" t="s">
         <v>60</v>
       </c>
-      <c r="K68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
       </c>
-      <c r="H70" t="s">
-        <v>134</v>
-      </c>
-      <c r="I70" t="s">
-        <v>211</v>
+      <c r="G70">
+        <v>0.6</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
       </c>
-      <c r="G71">
-        <v>0.3</v>
+      <c r="H71" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3357,246 +3356,271 @@
         <v>72</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" t="s">
-        <v>172</v>
-      </c>
-      <c r="I73" t="s">
-        <v>60</v>
+        <v>227</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" t="s">
+        <v>229</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
         <v>34</v>
       </c>
       <c r="H74" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="I74" t="s">
-        <v>219</v>
-      </c>
-      <c r="K74" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
         <v>34</v>
       </c>
       <c r="G75">
-        <v>0.6</v>
+        <v>0.4</v>
+      </c>
+      <c r="H75" t="s">
+        <v>63</v>
       </c>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" t="s">
-        <v>222</v>
+        <v>236</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" t="s">
+        <v>72</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
         <v>72</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
         <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="I79" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
       </c>
-      <c r="G80">
-        <v>0.4</v>
-      </c>
       <c r="H80" t="s">
-        <v>63</v>
+        <v>174</v>
+      </c>
+      <c r="I80" t="s">
+        <v>247</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" t="s">
-        <v>72</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G81">
+        <v>0.6</v>
+      </c>
+      <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
         <v>72</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="E83" t="s">
         <v>72</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
-      </c>
-      <c r="H84" t="s">
-        <v>172</v>
-      </c>
-      <c r="I84" t="s">
-        <v>60</v>
+        <v>257</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" t="s">
+        <v>72</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85" t="s">
-        <v>174</v>
-      </c>
-      <c r="I85" t="s">
-        <v>247</v>
-      </c>
-      <c r="K85" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>72</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86">
-        <v>0.6</v>
-      </c>
-      <c r="K86" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>72</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" t="s">
-        <v>249</v>
+      <c r="A87" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3608,311 +3632,285 @@
         <v>72</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>252</v>
-      </c>
-      <c r="B88" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>254</v>
-      </c>
-      <c r="E88" t="s">
-        <v>72</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>254</v>
-      </c>
-      <c r="E89" t="s">
-        <v>72</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
-        <v>259</v>
-      </c>
-      <c r="B90" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" t="s">
-        <v>72</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>262</v>
-      </c>
-      <c r="B91" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" t="s">
-        <v>72</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B92" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" t="s">
-        <v>72</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
         <v>267</v>
       </c>
-      <c r="J93" t="b">
-        <v>1</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="2" customFormat="1">
-      <c r="A98" s="2" t="s">
+    <row r="93" spans="1:11" s="2" customFormat="1">
+      <c r="A93" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1"/>
+    <row r="94" spans="1:11" s="2" customFormat="1"/>
+    <row r="95" spans="1:11" s="3" customFormat="1">
+      <c r="A95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="3" customFormat="1">
+      <c r="A96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="3" customFormat="1">
+      <c r="A97" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="3" customFormat="1"/>
+    <row r="99" spans="1:11" s="3" customFormat="1">
+      <c r="A99" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="100" spans="1:11" s="3" customFormat="1">
       <c r="A100" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1">
       <c r="A101" s="3" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1">
       <c r="A102" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H102" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1">
+      <c r="A103" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="I103" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1"/>
-    <row r="104" spans="1:11" s="3" customFormat="1">
-      <c r="A104" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1">
-      <c r="A105" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="3" customFormat="1">
-      <c r="A106" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="3">
-        <v>0</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="3" customFormat="1">
-      <c r="A107" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="3" customFormat="1">
-      <c r="A108" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" s="3" t="s">
+    <row r="108" spans="1:11">
+      <c r="A108" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I108" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>282</v>
+      <c r="I109" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F113" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="H113" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>465</v>
+      <c r="K115" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>470</v>
+        <v>447</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>189</v>
+      </c>
+      <c r="E117" t="s">
+        <v>190</v>
+      </c>
+      <c r="H117" t="s">
+        <v>128</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="2" customFormat="1">
+      <c r="A118" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3937,14 +3935,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4967,5 +4965,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>